--- a/Validateur_CDA-Ajout_JDV_J264/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/Validateur_CDA-Ajout_JDV_J264/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-29T13:51:45+00:00</t>
+    <t>2024-10-29T14:04:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Validateur_CDA-Ajout_JDV_J264/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/Validateur_CDA-Ajout_JDV_J264/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-29T14:04:26+00:00</t>
+    <t>2024-11-05T11:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Validateur_CDA-Ajout_JDV_J264/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/Validateur_CDA-Ajout_JDV_J264/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T11:14:25+00:00</t>
+    <t>2024-11-21T08:58:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
